--- a/biology/Botanique/Quararibea/Quararibea.xlsx
+++ b/biology/Botanique/Quararibea/Quararibea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quararibea est un genre d'arbre, appartenant à la famille des Malvaceae (anciennement des Bombacaceae), et dont l'espèce type est Quararibea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Quararibea correspond à des espèces d'arbre à feuilles, simples, couvertes de poils simples et étoilés. L'inflorescence, est axillaire ou ramiflore. Les fleurs sont solitaires ou regroupées sur de courtes brindilles. Les pédicelles sont bractéolées. Les fleurs sont actinomorphes avec des sépales connés renfermant des boutons bien développés. Les étamines forment un tube bien développé. Les anthères sont attachées aux lobes apicaux du tube ou au tube lui-même. L'ovaire comporte 2-4 loges. Les fruits indéhiscent renferme des graines retenues dans un endocarpe dur et fibreux pendant la dispersion[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Quararibea correspond à des espèces d'arbre à feuilles, simples, couvertes de poils simples et étoilés. L'inflorescence, est axillaire ou ramiflore. Les fleurs sont solitaires ou regroupées sur de courtes brindilles. Les pédicelles sont bractéolées. Les fleurs sont actinomorphes avec des sépales connés renfermant des boutons bien développés. Les étamines forment un tube bien développé. Les anthères sont attachées aux lobes apicaux du tube ou au tube lui-même. L'ovaire comporte 2-4 loges. Les fruits indéhiscent renferme des graines retenues dans un endocarpe dur et fibreux pendant la dispersion.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « QUARARIBEA. (Tabula 278.)
 CAL. Perianthium monophyllum, ſcabriuſculum ; tri vel quadri &amp; quinque-dentatum, quandoque uno latere ad medietatem fiſſum. 
 COR. Petala quinque, alba, oblonga, anguſta, obtuſa, undulata, calicis fundo inſerta, limbo extrà calicem patente, recurvo &amp; inflexo 
@@ -580,9 +596,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 décembre 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (17 décembre 2021) :
 Quararibea alata (Little) Cuatrec.
 Quararibea alchornifolia (Planch. &amp; Triana) Vischer
 Quararibea amazonica Ulbr.
